--- a/grupos/5ALCV - Estadisticos 20211.xlsx
+++ b/grupos/5ALCV - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="156">
   <si>
     <t>Materia</t>
   </si>
@@ -185,22 +185,22 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Polanco Domínguez Rosa María</t>
+  </si>
+  <si>
+    <t>Flores Ovalle Victor</t>
+  </si>
+  <si>
     <t>Duran Amezcua María Angélica</t>
   </si>
   <si>
     <t>Domínguez Burgos Marioscar</t>
   </si>
   <si>
-    <t>Polanco Domínguez Rosa María</t>
+    <t>González Nuñez Veronica</t>
   </si>
   <si>
     <t>Rivera Serra Alma Lilian</t>
-  </si>
-  <si>
-    <t>Flores Ovalle Victor</t>
-  </si>
-  <si>
-    <t>González Nuñez Veronica</t>
   </si>
   <si>
     <t>NC</t>
@@ -974,13 +974,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>-1</v>
@@ -989,7 +989,7 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>-1</v>
@@ -1028,13 +1028,13 @@
         <v>-1</v>
       </c>
       <c r="T4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W4">
         <v>-1</v>
@@ -1043,7 +1043,7 @@
         <v>9</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1051,13 +1051,13 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>-1</v>
@@ -1066,7 +1066,7 @@
         <v>7</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>-1</v>
@@ -1105,13 +1105,13 @@
         <v>-1</v>
       </c>
       <c r="T5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -1120,7 +1120,7 @@
         <v>7</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1128,13 +1128,13 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>-1</v>
@@ -1143,7 +1143,7 @@
         <v>9</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>-1</v>
@@ -1182,13 +1182,13 @@
         <v>-1</v>
       </c>
       <c r="T6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W6">
         <v>-1</v>
@@ -1197,7 +1197,7 @@
         <v>9</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1205,7 +1205,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>-1</v>
@@ -1220,7 +1220,7 @@
         <v>5</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <v>-1</v>
@@ -1259,7 +1259,7 @@
         <v>-1</v>
       </c>
       <c r="T7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U7">
         <v>-1</v>
@@ -1274,7 +1274,7 @@
         <v>5</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1282,13 +1282,13 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>-1</v>
@@ -1297,7 +1297,7 @@
         <v>9</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H8">
         <v>-1</v>
@@ -1336,13 +1336,13 @@
         <v>-1</v>
       </c>
       <c r="T8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W8">
         <v>-1</v>
@@ -1351,7 +1351,7 @@
         <v>9</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1359,13 +1359,13 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>-1</v>
@@ -1374,7 +1374,7 @@
         <v>8</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H9">
         <v>-1</v>
@@ -1413,13 +1413,13 @@
         <v>-1</v>
       </c>
       <c r="T9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W9">
         <v>-1</v>
@@ -1428,7 +1428,7 @@
         <v>8</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1436,22 +1436,22 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>9</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>-1</v>
@@ -1490,22 +1490,22 @@
         <v>-1</v>
       </c>
       <c r="T10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X10">
         <v>9</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1513,13 +1513,13 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>-1</v>
@@ -1528,7 +1528,7 @@
         <v>8</v>
       </c>
       <c r="G11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <v>-1</v>
@@ -1567,13 +1567,13 @@
         <v>-1</v>
       </c>
       <c r="T11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W11">
         <v>-1</v>
@@ -1582,7 +1582,7 @@
         <v>8</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1590,10 +1590,10 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H12">
         <v>-1</v>
@@ -1608,10 +1608,10 @@
         <v>-1</v>
       </c>
       <c r="T12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1619,13 +1619,13 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <v>-1</v>
@@ -1634,7 +1634,7 @@
         <v>8</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H13">
         <v>-1</v>
@@ -1673,13 +1673,13 @@
         <v>-1</v>
       </c>
       <c r="T13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1688,7 +1688,7 @@
         <v>8</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1696,13 +1696,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>-1</v>
@@ -1711,7 +1711,7 @@
         <v>8</v>
       </c>
       <c r="G14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H14">
         <v>-1</v>
@@ -1750,13 +1750,13 @@
         <v>-1</v>
       </c>
       <c r="T14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W14">
         <v>-1</v>
@@ -1765,7 +1765,7 @@
         <v>8</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1773,13 +1773,13 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>-1</v>
@@ -1788,7 +1788,7 @@
         <v>9</v>
       </c>
       <c r="G15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H15">
         <v>-1</v>
@@ -1827,13 +1827,13 @@
         <v>-1</v>
       </c>
       <c r="T15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -1842,7 +1842,7 @@
         <v>9</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1850,13 +1850,13 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>-1</v>
@@ -1865,7 +1865,7 @@
         <v>9</v>
       </c>
       <c r="G16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H16">
         <v>-1</v>
@@ -1904,13 +1904,13 @@
         <v>-1</v>
       </c>
       <c r="T16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1919,7 +1919,7 @@
         <v>9</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1927,7 +1927,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>-1</v>
@@ -1942,7 +1942,7 @@
         <v>8</v>
       </c>
       <c r="G17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H17">
         <v>-1</v>
@@ -1981,7 +1981,7 @@
         <v>-1</v>
       </c>
       <c r="T17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U17">
         <v>-1</v>
@@ -1996,7 +1996,7 @@
         <v>8</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2004,13 +2004,13 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>-1</v>
@@ -2019,7 +2019,7 @@
         <v>9</v>
       </c>
       <c r="G18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H18">
         <v>-1</v>
@@ -2058,13 +2058,13 @@
         <v>-1</v>
       </c>
       <c r="T18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2073,7 +2073,7 @@
         <v>9</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2081,10 +2081,10 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D19">
         <v>-1</v>
@@ -2096,7 +2096,7 @@
         <v>7</v>
       </c>
       <c r="G19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H19">
         <v>-1</v>
@@ -2135,10 +2135,10 @@
         <v>-1</v>
       </c>
       <c r="T19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V19">
         <v>-1</v>
@@ -2150,7 +2150,7 @@
         <v>7</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2158,13 +2158,13 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E20">
         <v>-1</v>
@@ -2173,7 +2173,7 @@
         <v>7</v>
       </c>
       <c r="G20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H20">
         <v>-1</v>
@@ -2212,13 +2212,13 @@
         <v>-1</v>
       </c>
       <c r="T20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2227,7 +2227,7 @@
         <v>7</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2235,13 +2235,13 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <v>-1</v>
@@ -2250,7 +2250,7 @@
         <v>9</v>
       </c>
       <c r="G21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H21">
         <v>-1</v>
@@ -2289,13 +2289,13 @@
         <v>-1</v>
       </c>
       <c r="T21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W21">
         <v>-1</v>
@@ -2304,7 +2304,7 @@
         <v>9</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2312,10 +2312,10 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H22">
         <v>-1</v>
@@ -2330,10 +2330,10 @@
         <v>-1</v>
       </c>
       <c r="T22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2341,10 +2341,10 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D23">
         <v>-1</v>
@@ -2356,7 +2356,7 @@
         <v>9</v>
       </c>
       <c r="G23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H23">
         <v>-1</v>
@@ -2395,10 +2395,10 @@
         <v>-1</v>
       </c>
       <c r="T23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V23">
         <v>-1</v>
@@ -2410,7 +2410,7 @@
         <v>9</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2418,13 +2418,13 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E24">
         <v>-1</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="G24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H24">
         <v>-1</v>
@@ -2472,13 +2472,13 @@
         <v>-1</v>
       </c>
       <c r="T24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W24">
         <v>-1</v>
@@ -2487,7 +2487,7 @@
         <v>10</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2495,13 +2495,13 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E25">
         <v>-1</v>
@@ -2510,7 +2510,7 @@
         <v>8</v>
       </c>
       <c r="G25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H25">
         <v>-1</v>
@@ -2549,13 +2549,13 @@
         <v>-1</v>
       </c>
       <c r="T25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W25">
         <v>-1</v>
@@ -2564,7 +2564,7 @@
         <v>8</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -2572,13 +2572,13 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <v>-1</v>
@@ -2587,7 +2587,7 @@
         <v>9</v>
       </c>
       <c r="G26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H26">
         <v>-1</v>
@@ -2626,13 +2626,13 @@
         <v>-1</v>
       </c>
       <c r="T26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2641,7 +2641,7 @@
         <v>9</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -2649,13 +2649,13 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E27">
         <v>-1</v>
@@ -2664,7 +2664,7 @@
         <v>8</v>
       </c>
       <c r="G27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H27">
         <v>-1</v>
@@ -2703,13 +2703,13 @@
         <v>-1</v>
       </c>
       <c r="T27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2718,7 +2718,7 @@
         <v>8</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -2726,13 +2726,13 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E28">
         <v>-1</v>
@@ -2741,7 +2741,7 @@
         <v>10</v>
       </c>
       <c r="G28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H28">
         <v>-1</v>
@@ -2780,13 +2780,13 @@
         <v>-1</v>
       </c>
       <c r="T28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W28">
         <v>-1</v>
@@ -2795,7 +2795,7 @@
         <v>10</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -2803,13 +2803,13 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E29">
         <v>-1</v>
@@ -2818,7 +2818,7 @@
         <v>8</v>
       </c>
       <c r="G29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H29">
         <v>-1</v>
@@ -2857,13 +2857,13 @@
         <v>-1</v>
       </c>
       <c r="T29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -2872,7 +2872,7 @@
         <v>8</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -2880,22 +2880,22 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F30">
         <v>10</v>
       </c>
       <c r="G30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H30">
         <v>-1</v>
@@ -2934,22 +2934,22 @@
         <v>-1</v>
       </c>
       <c r="T30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X30">
         <v>10</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -2957,13 +2957,13 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E31">
         <v>-1</v>
@@ -2972,7 +2972,7 @@
         <v>9</v>
       </c>
       <c r="G31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H31">
         <v>-1</v>
@@ -3011,13 +3011,13 @@
         <v>-1</v>
       </c>
       <c r="T31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3026,7 +3026,7 @@
         <v>9</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -3034,13 +3034,13 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E32">
         <v>-1</v>
@@ -3049,7 +3049,7 @@
         <v>10</v>
       </c>
       <c r="G32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H32">
         <v>-1</v>
@@ -3088,13 +3088,13 @@
         <v>-1</v>
       </c>
       <c r="T32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W32">
         <v>-1</v>
@@ -3103,7 +3103,7 @@
         <v>10</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -3111,13 +3111,13 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C33">
         <v>-1</v>
       </c>
       <c r="G33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H33">
         <v>-1</v>
@@ -3138,13 +3138,13 @@
         <v>-1</v>
       </c>
       <c r="T33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:25">
@@ -3152,13 +3152,13 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E34">
         <v>-1</v>
@@ -3167,7 +3167,7 @@
         <v>7</v>
       </c>
       <c r="G34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H34">
         <v>-1</v>
@@ -3206,13 +3206,13 @@
         <v>-1</v>
       </c>
       <c r="T34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W34">
         <v>-1</v>
@@ -3221,7 +3221,7 @@
         <v>7</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -3229,22 +3229,22 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F35">
         <v>9</v>
       </c>
       <c r="G35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H35">
         <v>-1</v>
@@ -3283,22 +3283,22 @@
         <v>-1</v>
       </c>
       <c r="T35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X35">
         <v>9</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -3306,13 +3306,13 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E36">
         <v>-1</v>
@@ -3321,7 +3321,7 @@
         <v>10</v>
       </c>
       <c r="G36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H36">
         <v>-1</v>
@@ -3360,13 +3360,13 @@
         <v>-1</v>
       </c>
       <c r="T36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V36">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W36">
         <v>-1</v>
@@ -3375,7 +3375,7 @@
         <v>10</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:25">
@@ -3383,13 +3383,13 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D37">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E37">
         <v>-1</v>
@@ -3398,7 +3398,7 @@
         <v>9</v>
       </c>
       <c r="G37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H37">
         <v>-1</v>
@@ -3437,13 +3437,13 @@
         <v>-1</v>
       </c>
       <c r="T37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V37">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W37">
         <v>-1</v>
@@ -3452,7 +3452,7 @@
         <v>9</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3511,173 +3511,188 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
       </c>
       <c r="C2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>9.68</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>9.300000000000001</v>
+      </c>
       <c r="I2">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>90.31999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D3">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>76.47</v>
+      </c>
+      <c r="G3">
+        <v>23.53</v>
+      </c>
+      <c r="H3">
+        <v>7.3</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="J3">
         <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>31</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>78.13</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>12.5</v>
+      </c>
+      <c r="H4">
+        <v>7.6</v>
       </c>
       <c r="I4">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>9.380000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
       </c>
       <c r="C5">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
+      <c r="H5">
+        <v>8.5</v>
+      </c>
       <c r="I5">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="J5">
-        <v>100</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>96.77</v>
+      </c>
+      <c r="G6">
+        <v>3.23</v>
+      </c>
+      <c r="H6">
+        <v>8.5</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="J6">
         <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>34</v>
-      </c>
-      <c r="J6">
-        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>96.77</v>
+        <v>100</v>
       </c>
       <c r="G7">
-        <v>3.23</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3740,7 +3755,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3760,7 +3775,7 @@
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3780,7 +3795,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3800,7 +3815,7 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3820,7 +3835,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3840,7 +3855,7 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3860,7 +3875,7 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3880,7 +3895,7 @@
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3900,7 +3915,7 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3920,7 +3935,7 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3940,7 +3955,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3960,7 +3975,7 @@
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3980,7 +3995,7 @@
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4000,7 +4015,7 @@
         <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4020,7 +4035,7 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4040,7 +4055,7 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4060,7 +4075,7 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4080,7 +4095,7 @@
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4100,7 +4115,7 @@
         <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4120,7 +4135,7 @@
         <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4140,7 +4155,7 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4160,7 +4175,7 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4180,7 +4195,7 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4200,7 +4215,7 @@
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4220,7 +4235,7 @@
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4240,7 +4255,7 @@
         <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4260,7 +4275,7 @@
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4280,7 +4295,7 @@
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4300,7 +4315,7 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4320,7 +4335,7 @@
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4340,7 +4355,7 @@
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4360,7 +4375,7 @@
         <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4380,7 +4395,7 @@
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4400,7 +4415,7 @@
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4420,7 +4435,7 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4440,7 +4455,7 @@
         <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4460,7 +4475,7 @@
         <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4480,7 +4495,7 @@
         <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4500,7 +4515,7 @@
         <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4520,7 +4535,7 @@
         <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4540,7 +4555,7 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4560,7 +4575,7 @@
         <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4580,7 +4595,7 @@
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4600,7 +4615,7 @@
         <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4620,7 +4635,7 @@
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4640,7 +4655,7 @@
         <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4660,7 +4675,7 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4680,7 +4695,7 @@
         <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4700,7 +4715,7 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4720,7 +4735,7 @@
         <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4740,7 +4755,7 @@
         <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4760,7 +4775,7 @@
         <v>6</v>
       </c>
       <c r="F53" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4780,7 +4795,7 @@
         <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4800,7 +4815,7 @@
         <v>8</v>
       </c>
       <c r="F55" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4820,7 +4835,7 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4840,7 +4855,7 @@
         <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4860,7 +4875,7 @@
         <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4880,7 +4895,7 @@
         <v>6</v>
       </c>
       <c r="F59" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4900,7 +4915,7 @@
         <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4920,7 +4935,7 @@
         <v>8</v>
       </c>
       <c r="F61" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4940,7 +4955,7 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4960,7 +4975,7 @@
         <v>5</v>
       </c>
       <c r="F63" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4980,7 +4995,7 @@
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5000,7 +5015,7 @@
         <v>6</v>
       </c>
       <c r="F65" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5020,7 +5035,7 @@
         <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5040,7 +5055,7 @@
         <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5060,7 +5075,7 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5080,7 +5095,7 @@
         <v>5</v>
       </c>
       <c r="F69" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5100,7 +5115,7 @@
         <v>9</v>
       </c>
       <c r="F70" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5120,7 +5135,7 @@
         <v>6</v>
       </c>
       <c r="F71" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5140,7 +5155,7 @@
         <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5160,7 +5175,7 @@
         <v>8</v>
       </c>
       <c r="F73" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5180,7 +5195,7 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5200,7 +5215,7 @@
         <v>5</v>
       </c>
       <c r="F75" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5220,7 +5235,7 @@
         <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5240,7 +5255,7 @@
         <v>6</v>
       </c>
       <c r="F77" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5260,7 +5275,7 @@
         <v>7</v>
       </c>
       <c r="F78" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5280,7 +5295,7 @@
         <v>8</v>
       </c>
       <c r="F79" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -5300,7 +5315,7 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -5320,7 +5335,7 @@
         <v>5</v>
       </c>
       <c r="F81" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5340,7 +5355,7 @@
         <v>9</v>
       </c>
       <c r="F82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5360,7 +5375,7 @@
         <v>6</v>
       </c>
       <c r="F83" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5380,7 +5395,7 @@
         <v>7</v>
       </c>
       <c r="F84" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5400,7 +5415,7 @@
         <v>8</v>
       </c>
       <c r="F85" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5420,7 +5435,7 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5440,7 +5455,7 @@
         <v>5</v>
       </c>
       <c r="F87" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5460,7 +5475,7 @@
         <v>9</v>
       </c>
       <c r="F88" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5480,7 +5495,7 @@
         <v>6</v>
       </c>
       <c r="F89" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5500,7 +5515,7 @@
         <v>7</v>
       </c>
       <c r="F90" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5520,7 +5535,7 @@
         <v>8</v>
       </c>
       <c r="F91" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5540,7 +5555,7 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5560,7 +5575,7 @@
         <v>5</v>
       </c>
       <c r="F93" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5580,7 +5595,7 @@
         <v>9</v>
       </c>
       <c r="F94" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5600,7 +5615,7 @@
         <v>6</v>
       </c>
       <c r="F95" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5620,7 +5635,7 @@
         <v>7</v>
       </c>
       <c r="F96" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5640,7 +5655,7 @@
         <v>8</v>
       </c>
       <c r="F97" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5660,7 +5675,7 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -5680,7 +5695,7 @@
         <v>5</v>
       </c>
       <c r="F99" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5700,7 +5715,7 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5720,7 +5735,7 @@
         <v>5</v>
       </c>
       <c r="F101" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -5740,7 +5755,7 @@
         <v>9</v>
       </c>
       <c r="F102" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -5760,7 +5775,7 @@
         <v>6</v>
       </c>
       <c r="F103" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -5780,7 +5795,7 @@
         <v>7</v>
       </c>
       <c r="F104" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -5800,7 +5815,7 @@
         <v>8</v>
       </c>
       <c r="F105" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -5820,7 +5835,7 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -5840,7 +5855,7 @@
         <v>5</v>
       </c>
       <c r="F107" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -5860,7 +5875,7 @@
         <v>9</v>
       </c>
       <c r="F108" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -5880,7 +5895,7 @@
         <v>6</v>
       </c>
       <c r="F109" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -5900,7 +5915,7 @@
         <v>7</v>
       </c>
       <c r="F110" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -5920,7 +5935,7 @@
         <v>8</v>
       </c>
       <c r="F111" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -5940,7 +5955,7 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -5960,7 +5975,7 @@
         <v>5</v>
       </c>
       <c r="F113" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -5980,7 +5995,7 @@
         <v>9</v>
       </c>
       <c r="F114" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -6000,7 +6015,7 @@
         <v>6</v>
       </c>
       <c r="F115" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -6020,7 +6035,7 @@
         <v>7</v>
       </c>
       <c r="F116" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -6040,7 +6055,7 @@
         <v>8</v>
       </c>
       <c r="F117" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -6060,7 +6075,7 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -6080,7 +6095,7 @@
         <v>5</v>
       </c>
       <c r="F119" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -6100,7 +6115,7 @@
         <v>9</v>
       </c>
       <c r="F120" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -6120,7 +6135,7 @@
         <v>6</v>
       </c>
       <c r="F121" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -6140,7 +6155,7 @@
         <v>7</v>
       </c>
       <c r="F122" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -6160,7 +6175,7 @@
         <v>8</v>
       </c>
       <c r="F123" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -6180,7 +6195,7 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -6200,7 +6215,7 @@
         <v>5</v>
       </c>
       <c r="F125" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -6220,7 +6235,7 @@
         <v>9</v>
       </c>
       <c r="F126" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -6240,7 +6255,7 @@
         <v>6</v>
       </c>
       <c r="F127" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -6260,7 +6275,7 @@
         <v>7</v>
       </c>
       <c r="F128" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -6280,7 +6295,7 @@
         <v>8</v>
       </c>
       <c r="F129" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -6300,7 +6315,7 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6320,7 +6335,7 @@
         <v>5</v>
       </c>
       <c r="F131" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -6340,7 +6355,7 @@
         <v>9</v>
       </c>
       <c r="F132" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -6360,7 +6375,7 @@
         <v>6</v>
       </c>
       <c r="F133" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -6380,7 +6395,7 @@
         <v>7</v>
       </c>
       <c r="F134" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -6400,7 +6415,7 @@
         <v>8</v>
       </c>
       <c r="F135" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -6420,7 +6435,7 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6440,7 +6455,7 @@
         <v>5</v>
       </c>
       <c r="F137" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -6460,7 +6475,7 @@
         <v>9</v>
       </c>
       <c r="F138" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -6480,7 +6495,7 @@
         <v>6</v>
       </c>
       <c r="F139" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -6500,7 +6515,7 @@
         <v>7</v>
       </c>
       <c r="F140" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -6520,7 +6535,7 @@
         <v>8</v>
       </c>
       <c r="F141" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -6540,7 +6555,7 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -6560,7 +6575,7 @@
         <v>5</v>
       </c>
       <c r="F143" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -6580,7 +6595,7 @@
         <v>9</v>
       </c>
       <c r="F144" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -6600,7 +6615,7 @@
         <v>6</v>
       </c>
       <c r="F145" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -6620,7 +6635,7 @@
         <v>7</v>
       </c>
       <c r="F146" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -6640,7 +6655,7 @@
         <v>8</v>
       </c>
       <c r="F147" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -6660,7 +6675,7 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -6680,7 +6695,7 @@
         <v>5</v>
       </c>
       <c r="F149" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -6700,7 +6715,7 @@
         <v>9</v>
       </c>
       <c r="F150" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -6720,7 +6735,7 @@
         <v>6</v>
       </c>
       <c r="F151" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -6740,7 +6755,7 @@
         <v>7</v>
       </c>
       <c r="F152" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -6760,7 +6775,7 @@
         <v>8</v>
       </c>
       <c r="F153" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -6780,7 +6795,7 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -6800,7 +6815,7 @@
         <v>5</v>
       </c>
       <c r="F155" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -6820,7 +6835,7 @@
         <v>9</v>
       </c>
       <c r="F156" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -6840,7 +6855,7 @@
         <v>6</v>
       </c>
       <c r="F157" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -6860,7 +6875,7 @@
         <v>7</v>
       </c>
       <c r="F158" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -6880,7 +6895,7 @@
         <v>8</v>
       </c>
       <c r="F159" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -6900,7 +6915,7 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -6920,7 +6935,7 @@
         <v>5</v>
       </c>
       <c r="F161" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -6940,7 +6955,7 @@
         <v>9</v>
       </c>
       <c r="F162" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -6960,7 +6975,7 @@
         <v>6</v>
       </c>
       <c r="F163" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -6980,7 +6995,7 @@
         <v>7</v>
       </c>
       <c r="F164" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -7000,7 +7015,7 @@
         <v>8</v>
       </c>
       <c r="F165" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -7020,7 +7035,7 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -7040,7 +7055,7 @@
         <v>5</v>
       </c>
       <c r="F167" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -7060,7 +7075,7 @@
         <v>9</v>
       </c>
       <c r="F168" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -7080,7 +7095,7 @@
         <v>6</v>
       </c>
       <c r="F169" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -7100,7 +7115,7 @@
         <v>7</v>
       </c>
       <c r="F170" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -7120,7 +7135,7 @@
         <v>8</v>
       </c>
       <c r="F171" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -7140,7 +7155,7 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -7160,7 +7175,7 @@
         <v>5</v>
       </c>
       <c r="F173" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -7180,7 +7195,7 @@
         <v>6</v>
       </c>
       <c r="F174" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -7200,7 +7215,7 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -7220,7 +7235,7 @@
         <v>5</v>
       </c>
       <c r="F176" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -7240,7 +7255,7 @@
         <v>9</v>
       </c>
       <c r="F177" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -7260,7 +7275,7 @@
         <v>6</v>
       </c>
       <c r="F178" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -7280,7 +7295,7 @@
         <v>7</v>
       </c>
       <c r="F179" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -7300,7 +7315,7 @@
         <v>8</v>
       </c>
       <c r="F180" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -7320,7 +7335,7 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -7340,7 +7355,7 @@
         <v>5</v>
       </c>
       <c r="F182" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -7360,7 +7375,7 @@
         <v>9</v>
       </c>
       <c r="F183" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -7380,7 +7395,7 @@
         <v>6</v>
       </c>
       <c r="F184" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -7400,7 +7415,7 @@
         <v>7</v>
       </c>
       <c r="F185" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -7420,7 +7435,7 @@
         <v>8</v>
       </c>
       <c r="F186" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -7440,7 +7455,7 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -7460,7 +7475,7 @@
         <v>5</v>
       </c>
       <c r="F188" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -7480,7 +7495,7 @@
         <v>9</v>
       </c>
       <c r="F189" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -7500,7 +7515,7 @@
         <v>6</v>
       </c>
       <c r="F190" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -7520,7 +7535,7 @@
         <v>7</v>
       </c>
       <c r="F191" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -7540,7 +7555,7 @@
         <v>8</v>
       </c>
       <c r="F192" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -7560,7 +7575,7 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -7580,7 +7595,7 @@
         <v>5</v>
       </c>
       <c r="F194" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -8202,7 +8217,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8237,45 +8252,45 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920319</v>
+        <v>19330051920273</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920319</v>
+        <v>19330051920273</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -8283,47 +8298,783 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920336</v>
+        <v>19330051920268</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4">
         <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4">
-        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
+        <v>19330051920268</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>18330051920242</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>18330051920242</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19330051920278</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>19330051920278</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>19330051920284</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>19330051920284</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>19330051920286</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>19330051920286</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>19330051920301</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>19330051920301</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>18330051920346</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>18330051920346</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>19330051920270</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>19330051920272</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19330051920269</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>18330051920319</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>18330051920321</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>19330051920449</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>19330051920279</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>19330051920447</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
         <v>18330051920336</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B26" t="s">
         <v>81</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C26" t="s">
         <v>111</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D26" t="s">
         <v>140</v>
       </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5">
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>19330051920287</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>19330051920343</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>19330051920292</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>19330051920293</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>19330051920294</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>19330051920296</v>
+      </c>
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>19330051920295</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>19330051920298</v>
+      </c>
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>19330051920299</v>
+      </c>
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>19330051920443</v>
+      </c>
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>19330051920305</v>
+      </c>
+      <c r="B37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37">
         <v>-1</v>
       </c>
     </row>
